--- a/product-definitions/spreadsheet/aerosol-no3-so4-nh3-org-concentration.xlsx
+++ b/product-definitions/spreadsheet/aerosol-no3-so4-nh3-org-concentration.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>example vale</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>mass_concentration_of_nitrate_in_ambient_aerosol_particles_in_air</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>long_name</t>
   </si>
   <si>
-    <t>Mass concentration of NO3 component of ambient aerosol particles in air</t>
+    <t>Mass concentration of the NO3 component of ambient aerosol particles in air</t>
   </si>
   <si>
     <t>_FillValue</t>
@@ -83,18 +80,7 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>mean or point</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -112,38 +98,16 @@
     <t>mass_concentration_of_sulfate_in_ambient_aerosol_particles_in_air</t>
   </si>
   <si>
-    <t>Mass concentration of SO4 component of ambient aerosol particles in air</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t>Mass concentration of the SO4 component of ambient aerosol particles in air</t>
   </si>
   <si>
     <t>SO4</t>
   </si>
   <si>
-    <t>mass_concentration_of_ammonium_in_ ambient_aerosol_particles_in_air</t>
-  </si>
-  <si>
-    <t>Mass concentration of NH3 component of ambient aerosol particles in air</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t>mass_concentration_of_ammonia_in_ ambient_aerosol_particles_in_air</t>
+  </si>
+  <si>
+    <t>Mass concentration of the NH3 component of ambient aerosol particles in air</t>
   </si>
   <si>
     <t>NH3</t>
@@ -152,18 +116,7 @@
     <t>mass_concentration_of_organics_in_ ambient_aerosol_particles_in_air</t>
   </si>
   <si>
-    <t>Mass concentration of organic component of ambient aerosol particles in air</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t>Mass concentration of the organic component of ambient aerosol particles in air</t>
   </si>
   <si>
     <t>organic</t>
@@ -260,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,6 +259,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -514,13 +470,11 @@
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -528,19 +482,19 @@
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
@@ -549,32 +503,32 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11">
         <v>-1.0E20</v>
@@ -583,50 +537,48 @@
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="16" t="s">
-        <v>27</v>
+      <c r="B13" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
@@ -636,7 +588,7 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -644,19 +596,19 @@
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
@@ -665,32 +617,32 @@
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="11">
         <v>-1.0E20</v>
@@ -699,50 +651,48 @@
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="16" t="s">
-        <v>27</v>
+      <c r="B26" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
@@ -752,7 +702,7 @@
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -760,19 +710,19 @@
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
@@ -781,32 +731,32 @@
         <v>2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="11">
         <v>-1.0E20</v>
@@ -815,50 +765,48 @@
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="16" t="s">
-        <v>27</v>
+      <c r="B39" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
@@ -868,7 +816,7 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -876,19 +824,19 @@
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
@@ -897,32 +845,32 @@
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="11">
         <v>-1.0E20</v>
@@ -931,55 +879,53 @@
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" ht="12.0" customHeight="1">
+      <c r="B52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" ht="12.0" customHeight="1">
-      <c r="B52" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="C52" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1"/>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="16" t="s">
-        <v>41</v>
+      <c r="A54" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -987,19 +933,19 @@
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="57" ht="12.0" customHeight="1">
@@ -1007,52 +953,52 @@
       <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C58" s="18"/>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="18" t="s">
-        <v>44</v>
+      <c r="B60" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="17"/>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" ht="12.0" customHeight="1">
-      <c r="A63" s="16" t="s">
-        <v>48</v>
+      <c r="A63" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="8"/>
@@ -1060,19 +1006,19 @@
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="66" ht="12.0" customHeight="1">
@@ -1080,47 +1026,47 @@
       <c r="B66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C67" s="18"/>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="18" t="s">
-        <v>44</v>
+      <c r="B69" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="12.0" customHeight="1">
-      <c r="A71" s="16" t="s">
-        <v>50</v>
+      <c r="A71" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="8"/>
@@ -1128,19 +1074,19 @@
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
@@ -1148,47 +1094,47 @@
       <c r="B74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C75" s="18"/>
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="18" t="s">
-        <v>44</v>
+      <c r="B77" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" ht="12.0" customHeight="1">
+      <c r="A79" s="17" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="79" ht="12.0" customHeight="1">
-      <c r="A79" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="8"/>
@@ -1196,19 +1142,19 @@
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1">
@@ -1216,42 +1162,42 @@
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C83" s="18"/>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="18" t="s">
-        <v>44</v>
+      <c r="B85" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
